--- a/data/Anzahl Fahrzeuge/Fahrzeugbestand pro Gemeinde extrapoliert.xlsx
+++ b/data/Anzahl Fahrzeuge/Fahrzeugbestand pro Gemeinde extrapoliert.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonpeukert/Downloads/Anzahl Fahrzeuge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonpeukert/GitHub/sogrim/data/Anzahl Fahrzeuge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4AFED2-6BF8-014B-86C6-E81D7B9238F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58DDCA-FA1E-5C46-A83F-78548A2F794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$6:$E$2169</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -13471,10 +13474,10 @@
   <dimension ref="A1:E2181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C2082" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2143" sqref="L2143"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -16734,10 +16737,6 @@
       <c r="D184" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E184" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
@@ -16842,10 +16841,6 @@
       <c r="D190" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E190" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
@@ -16860,10 +16855,6 @@
       <c r="D191" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E191" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
@@ -16950,10 +16941,6 @@
       <c r="D196" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E196" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
@@ -17418,10 +17405,6 @@
       <c r="D222" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E222" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
@@ -17832,10 +17815,6 @@
       <c r="D245" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E245" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
@@ -17850,10 +17829,6 @@
       <c r="D246" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E246" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
@@ -18048,10 +18023,6 @@
       <c r="D257" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E257" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
@@ -18948,10 +18919,6 @@
       <c r="D307" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E307" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
@@ -19056,10 +19023,6 @@
       <c r="D313" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E313" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
@@ -19146,10 +19109,6 @@
       <c r="D318" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E318" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
@@ -19434,10 +19393,6 @@
       <c r="D334" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E334" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
@@ -19506,10 +19461,6 @@
       <c r="D338" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E338" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
@@ -19920,10 +19871,6 @@
       <c r="D361" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E361" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
@@ -20046,10 +19993,6 @@
       <c r="D368" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E368" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
@@ -20100,10 +20043,6 @@
       <c r="D371" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E371" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
@@ -20118,10 +20057,6 @@
       <c r="D372" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E372" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
@@ -20172,10 +20107,6 @@
       <c r="D375" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E375" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
@@ -20586,10 +20517,6 @@
       <c r="D398" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E398" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
@@ -20856,10 +20783,6 @@
       <c r="D413" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E413" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
@@ -21198,10 +21121,6 @@
       <c r="D432" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E432" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
@@ -21738,10 +21657,6 @@
       <c r="D462" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E462" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
@@ -21864,10 +21779,6 @@
       <c r="D469" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E469" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
@@ -21972,10 +21883,6 @@
       <c r="D475" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E475" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
@@ -22224,10 +22131,6 @@
       <c r="D489" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E489" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
@@ -22638,10 +22541,6 @@
       <c r="D512" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E512" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
@@ -24114,10 +24013,6 @@
       <c r="D594" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E594" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
@@ -24132,10 +24027,6 @@
       <c r="D595" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E595" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
@@ -24150,10 +24041,6 @@
       <c r="D596" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E596" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
@@ -24168,10 +24055,6 @@
       <c r="D597" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E597" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
@@ -24186,10 +24069,6 @@
       <c r="D598" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E598" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
@@ -24294,10 +24173,6 @@
       <c r="D604" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E604" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
@@ -24312,10 +24187,6 @@
       <c r="D605" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E605" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
@@ -24582,10 +24453,6 @@
       <c r="D620" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E620" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
@@ -24654,10 +24521,6 @@
       <c r="D624" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E624" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
@@ -24762,10 +24625,6 @@
       <c r="D630" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E630" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
@@ -25608,10 +25467,6 @@
       <c r="D677" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E677" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
@@ -26904,10 +26759,6 @@
       <c r="D749" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E749" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
@@ -27948,10 +27799,6 @@
       <c r="D807" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E807" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
@@ -29064,10 +28911,6 @@
       <c r="D869" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E869" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
@@ -33654,10 +33497,6 @@
       <c r="D1124" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1124" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1125" t="s">
@@ -33906,10 +33745,6 @@
       <c r="D1138" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1138" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1139" t="s">
@@ -33978,10 +33813,6 @@
       <c r="D1142" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1142" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1143" t="s">
@@ -34050,10 +33881,6 @@
       <c r="D1146" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1146" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1147" t="s">
@@ -34194,10 +34021,6 @@
       <c r="D1154" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1154" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1155" t="s">
@@ -34482,10 +34305,6 @@
       <c r="D1170" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1170" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1171" t="s">
@@ -34662,10 +34481,6 @@
       <c r="D1180" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1180" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1181" t="s">
@@ -34698,10 +34513,6 @@
       <c r="D1182" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1182" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1183" t="s">
@@ -34932,10 +34743,6 @@
       <c r="D1195" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1195" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1196" t="s">
@@ -35094,10 +34901,6 @@
       <c r="D1204" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1204" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1205" t="s">
@@ -40836,10 +40639,6 @@
       <c r="D1523" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1523" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1524" t="s">
@@ -42402,10 +42201,6 @@
       <c r="D1610" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1610" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1611" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1611" t="s">
@@ -42420,10 +42215,6 @@
       <c r="D1611" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1611" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1612" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1612" t="s">
@@ -42456,10 +42247,6 @@
       <c r="D1613" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1613" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1614" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1614" t="s">
@@ -42636,10 +42423,6 @@
       <c r="D1623" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1623" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1624" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1624" t="s">
@@ -43482,10 +43265,6 @@
       <c r="D1670" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1670" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1671" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1671" t="s">
@@ -44202,10 +43981,6 @@
       <c r="D1710" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1710" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1711" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1711" t="s">
@@ -45318,10 +45093,6 @@
       <c r="D1772" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1772" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1773" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1773" t="s">
@@ -45408,10 +45179,6 @@
       <c r="D1777" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1777" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1778" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1778" t="s">
@@ -45534,10 +45301,6 @@
       <c r="D1784" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1784" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1785" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1785" t="s">
@@ -46272,10 +46035,6 @@
       <c r="D1825" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1825" t="e">
-        <f t="shared" si="28"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1826" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1826" t="s">
@@ -46434,10 +46193,6 @@
       <c r="D1834" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1834" t="e">
-        <f t="shared" si="28"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1835" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1835" t="s">
@@ -47010,10 +46765,6 @@
       <c r="D1866" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1866" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1867" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1867" t="s">
@@ -47658,10 +47409,6 @@
       <c r="D1902" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1902" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1903" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1903" t="s">
@@ -48144,10 +47891,6 @@
       <c r="D1929" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1929" t="e">
-        <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1930" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1930" t="s">
@@ -48360,10 +48103,6 @@
       <c r="D1941" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1941" t="e">
-        <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1942" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1942" t="s">
@@ -48612,10 +48351,6 @@
       <c r="D1955" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1955" t="e">
-        <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1956" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1956" t="s">
@@ -48648,10 +48383,6 @@
       <c r="D1957" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1957" t="e">
-        <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1958" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1958" t="s">
@@ -48972,10 +48703,6 @@
       <c r="D1975" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1975" t="e">
-        <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1976" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1976" t="s">
@@ -49242,10 +48969,6 @@
       <c r="D1990" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1990" t="e">
-        <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1991" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1991" t="s">
@@ -49386,10 +49109,6 @@
       <c r="D1998" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1998" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="1999" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1999" t="s">
@@ -49926,10 +49645,6 @@
       <c r="D2028" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2028" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2029" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2029" t="s">
@@ -49980,10 +49695,6 @@
       <c r="D2031" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2031" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2032" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2032" t="s">
@@ -50142,10 +49853,6 @@
       <c r="D2040" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2040" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2041" t="s">
@@ -50340,10 +50047,6 @@
       <c r="D2051" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2051" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2052" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2052" t="s">
@@ -50412,10 +50115,6 @@
       <c r="D2055" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2055" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2056" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2056" t="s">
@@ -50520,10 +50219,6 @@
       <c r="D2061" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2061" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2062" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2062" t="s">
@@ -50682,10 +50377,6 @@
       <c r="D2070" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2070" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2071" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2071" t="s">
@@ -51564,10 +51255,6 @@
       <c r="D2119" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2119" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2120" t="s">
@@ -51726,10 +51413,6 @@
       <c r="D2128" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2128" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2129" t="s">
@@ -51870,10 +51553,6 @@
       <c r="D2136" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2136" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2137" t="s">
@@ -51924,10 +51603,6 @@
       <c r="D2139" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2139" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2140" t="s">
@@ -51942,10 +51617,6 @@
       <c r="D2140" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2140" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2141" t="s">
@@ -52086,10 +51757,6 @@
       <c r="D2148" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2148" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2149" t="s">
@@ -52284,10 +51951,6 @@
       <c r="D2159" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E2159" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2160" t="s">
@@ -52355,10 +52018,6 @@
       </c>
       <c r="D2163" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="E2163" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2164" spans="1:5" x14ac:dyDescent="0.15">
@@ -52481,10 +52140,6 @@
       <c r="D2171" s="9" t="s">
         <v>4334</v>
       </c>
-      <c r="E2171" t="e">
-        <f>SUM(E7:E2169)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="2172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2172" s="13" t="s">
@@ -52549,6 +52204,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A6:E2169" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="A2177:D2177"/>
     <mergeCell ref="A2178:D2178"/>
